--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -8,14 +8,14 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Recap" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="liste des taches" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="avancement projet" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="detail" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Recap" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="liste des taches" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="avancement projet" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="detail" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t xml:space="preserve">Avancement</t>
   </si>
@@ -37,16 +37,19 @@
     <t xml:space="preserve">Somme de Estimation</t>
   </si>
   <si>
-    <t xml:space="preserve">RAKOTO</t>
+    <t xml:space="preserve">(vide)</t>
   </si>
   <si>
-    <t xml:space="preserve">RASOA</t>
+    <t xml:space="preserve">Alan</t>
   </si>
   <si>
-    <t xml:space="preserve">(empty)</t>
+    <t xml:space="preserve">Mickaël</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Result</t>
+    <t xml:space="preserve">Vinod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Résultat</t>
   </si>
   <si>
     <t xml:space="preserve">Ligne</t>
@@ -91,9 +94,6 @@
     <t xml:space="preserve">Framework</t>
   </si>
   <si>
-    <t xml:space="preserve">Vinod</t>
-  </si>
-  <si>
     <t xml:space="preserve">En cours</t>
   </si>
   <si>
@@ -109,16 +109,10 @@
     <t xml:space="preserve">fonctionalite</t>
   </si>
   <si>
-    <t xml:space="preserve">Alan</t>
-  </si>
-  <si>
     <t xml:space="preserve">gestion</t>
   </si>
   <si>
     <t xml:space="preserve">Gestion des categorie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mickaël</t>
   </si>
   <si>
     <t xml:space="preserve">Base</t>
@@ -221,7 +215,7 @@
   <fonts count="9">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="0"/>
       <charset val="1"/>
@@ -244,7 +238,7 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="0"/>
       <charset val="1"/>
@@ -252,14 +246,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="0"/>
       <charset val="1"/>
@@ -267,14 +261,14 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -300,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -326,7 +320,7 @@
       <left style="medium"/>
       <right style="thin"/>
       <top style="medium"/>
-      <bottom/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -334,6 +328,20 @@
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -372,7 +380,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -397,22 +405,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -425,7 +436,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -433,31 +444,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -490,18 +509,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Value" xfId="20"/>
-    <cellStyle name="Pivot Table Field" xfId="21"/>
-    <cellStyle name="Pivot Table Category" xfId="22"/>
-    <cellStyle name="Pivot Table Title" xfId="23"/>
-    <cellStyle name="Pivot Table Result" xfId="24"/>
+    <cellStyle name="Catégorie de la table dynamique" xfId="20"/>
+    <cellStyle name="Champ de la table dynamique" xfId="21"/>
+    <cellStyle name="Résultat de la table dynamique" xfId="22"/>
+    <cellStyle name="Titre de la table dynamique" xfId="23"/>
+    <cellStyle name="Valeur de la table dynamique" xfId="24"/>
+    <cellStyle name="Coin de la table dynamique" xfId="25"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -567,88 +587,107 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="7" createdVersion="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="15" createdVersion="3">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:L20" sheet="liste des taches"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Module" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="dashboard"/>
-        <s v="Login"/>
+      <sharedItems containsBlank="1" count="11">
+        <s v="fichier"/>
+        <s v="filtre"/>
+        <s v="gestion"/>
+        <s v="historique"/>
+        <s v="inscription"/>
+        <s v="liste"/>
+        <s v="login"/>
+        <s v="stats"/>
+        <s v="table"/>
+        <s v="test"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Nom page" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="fonctions.php"/>
-        <s v="index.php"/>
-        <s v="traitement-login.php"/>
+      <sharedItems containsString="0" containsBlank="1" count="1">
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
-        <s v="checkLogin"/>
-        <s v="Création html"/>
-        <s v="Design css"/>
-        <s v="données test"/>
-        <s v="fonctionnement login"/>
-        <s v="table login"/>
+      <sharedItems containsBlank="1" count="16">
+        <s v="Arrangement de fichier"/>
+        <s v="Barre de recherche"/>
+        <s v="Conception de base"/>
+        <s v="Donnee de test"/>
+        <s v="Gestion des categorie"/>
+        <s v="Gestion des echanges"/>
+        <s v="Gestion des objets"/>
+        <s v="Historique d’appartenance d’un objet"/>
+        <s v="Inscritpion Utilisateur"/>
+        <s v="Liste objets autre utilisateur"/>
+        <s v="Login pour admin"/>
+        <s v="Login pour utilisateur"/>
+        <s v="Modifier/ajouter des tables"/>
+        <s v="Partie 2 :"/>
+        <s v="Statistique Admin"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
       <sharedItems containsBlank="1" count="5">
-        <s v="Affichage"/>
-        <s v="Base"/>
-        <s v="Code intégration"/>
-        <s v="Fonction"/>
+        <s v="conception"/>
+        <s v="donnees"/>
+        <s v="fonctionalite"/>
+        <s v="Framework"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Estimation" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="180" count="5">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="30" count="8">
+        <n v="5"/>
+        <n v="8"/>
         <n v="10"/>
         <n v="15"/>
+        <n v="20"/>
+        <n v="25"/>
         <n v="30"/>
-        <n v="180"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Temps passé" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="20" count="4">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="2">
         <n v="0"/>
-        <n v="10"/>
-        <n v="20"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Reste à faire" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="180" count="5">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="5" maxValue="30" count="8">
         <n v="5"/>
+        <n v="8"/>
         <n v="10"/>
+        <n v="15"/>
+        <n v="20"/>
+        <n v="25"/>
         <n v="30"/>
-        <n v="180"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Avancement" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.666666666666667" count="3">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="2">
         <n v="0"/>
-        <n v="0.666666666666667"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qui" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="RAKOTO"/>
-        <s v="RASOA"/>
+      <sharedItems containsBlank="1" count="4">
+        <s v="Alan"/>
+        <s v="Mickaël"/>
+        <s v="Vinod"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" count="1">
+      <sharedItems containsBlank="1" count="2">
+        <s v="En cours"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -657,97 +696,193 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="7">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="15">
   <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
     <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="2"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Recap" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" showDrill="1" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
-  <location ref="A3:B6" firstHeaderRow="0" firstDataRow="0" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Recap" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField compact="0" showAll="0" outline="0"/>
     <pivotField compact="0" showAll="0" outline="0"/>
@@ -758,7 +893,8 @@
     <pivotField compact="0" showAll="0" outline="0"/>
     <pivotField compact="0" showAll="0" outline="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0" outline="0">
-      <items count="4">
+      <items count="5">
+        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -777,180 +913,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="e97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196b24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="a02b93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4ea72e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="467886"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Aptos Narrow" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Aptos Narrow" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Aptos Narrow" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Aptos Narrow" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Aptos Narrow" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -960,7 +924,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.44"/>
@@ -986,36 +950,50 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>270</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>35</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="n">
-        <v>305</v>
+      <c r="B7" s="11" t="n">
+        <v>93</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>283</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2020,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2030,10 +2008,10 @@
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.82"/>
@@ -2045,294 +2023,294 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>16</v>
+      <c r="L1" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="A2" s="16" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="15" t="n">
+      <c r="F2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="H2" s="15" t="n">
+      <c r="H2" s="17" t="n">
         <f aca="false">detail!B2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="15" t="n">
+      <c r="I2" s="17" t="n">
         <f aca="false">G2-H2</f>
         <v>8</v>
       </c>
-      <c r="J2" s="16" t="n">
+      <c r="J2" s="18" t="n">
         <f aca="false">(H2/(H2+I2))</f>
         <v>0</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>21</v>
+      <c r="K2" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="15" t="n">
+      <c r="G3" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="H3" s="15" t="n">
+      <c r="H3" s="17" t="n">
         <f aca="false">detail!B3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="15" t="n">
+      <c r="I3" s="17" t="n">
         <f aca="false">G3-H3</f>
         <v>30</v>
       </c>
-      <c r="J3" s="16" t="n">
+      <c r="J3" s="18" t="n">
         <f aca="false">(H3/(H3+I3))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>27</v>
+      <c r="K3" s="17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="15" t="n">
+      <c r="G4" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="H4" s="15" t="n">
+      <c r="H4" s="17" t="n">
         <f aca="false">detail!B4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="15" t="n">
+      <c r="I4" s="17" t="n">
         <f aca="false">G4-H4</f>
         <v>30</v>
       </c>
-      <c r="J4" s="16" t="n">
+      <c r="J4" s="18" t="n">
         <f aca="false">(H4/(H4+I4))</f>
         <v>0</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>30</v>
+      <c r="K4" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="F5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="15" t="n">
+      <c r="G5" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="H5" s="15" t="n">
+      <c r="H5" s="17" t="n">
         <f aca="false">detail!B5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I5" s="17" t="n">
         <f aca="false">G5-H5</f>
         <v>15</v>
       </c>
-      <c r="J5" s="16" t="n">
+      <c r="J5" s="18" t="n">
         <f aca="false">(H5/(H5+I5))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>21</v>
+      <c r="K5" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="15" t="n">
+      <c r="G6" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="15" t="n">
+      <c r="H6" s="17" t="n">
         <f aca="false">detail!B6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="15" t="n">
+      <c r="I6" s="17" t="n">
         <f aca="false">G6-H6</f>
         <v>5</v>
       </c>
-      <c r="J6" s="16" t="n">
+      <c r="J6" s="18" t="n">
         <f aca="false">(H6/(H6+I6))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>21</v>
+      <c r="K6" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="15" t="n">
+      <c r="G7" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="H7" s="15" t="n">
+      <c r="H7" s="17" t="n">
         <f aca="false">detail!B7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="15" t="n">
+      <c r="I7" s="17" t="n">
         <f aca="false">G7-H7</f>
         <v>20</v>
       </c>
-      <c r="J7" s="16" t="n">
+      <c r="J7" s="18" t="n">
         <f aca="false">(H7/(H7+I7))</f>
         <v>0</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="15" t="n">
+      <c r="G8" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="H8" s="15" t="n">
+      <c r="H8" s="17" t="n">
         <f aca="false">detail!B8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="15" t="n">
+      <c r="I8" s="17" t="n">
         <f aca="false">G8-H8</f>
         <v>20</v>
       </c>
-      <c r="J8" s="16" t="n">
+      <c r="J8" s="18" t="n">
         <f aca="false">(H8/(H8+I8))</f>
         <v>0</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2343,10 +2321,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>26</v>
@@ -2354,20 +2332,20 @@
       <c r="G9" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H9" s="15" t="n">
+      <c r="H9" s="17" t="n">
         <f aca="false">detail!B9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="15" t="n">
+      <c r="I9" s="17" t="n">
         <f aca="false">G9-H9</f>
         <v>30</v>
       </c>
-      <c r="J9" s="16" t="n">
+      <c r="J9" s="18" t="n">
         <f aca="false">(H9/(H9+I9))</f>
         <v>0</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2378,10 +2356,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>26</v>
@@ -2389,20 +2367,20 @@
       <c r="G10" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="H10" s="15" t="n">
+      <c r="H10" s="17" t="n">
         <f aca="false">detail!B10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="15" t="n">
+      <c r="I10" s="17" t="n">
         <f aca="false">G10-H10</f>
         <v>15</v>
       </c>
-      <c r="J10" s="16" t="n">
+      <c r="J10" s="18" t="n">
         <f aca="false">(H10/(H10+I10))</f>
         <v>0</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2413,10 +2391,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>26</v>
@@ -2424,25 +2402,25 @@
       <c r="G11" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="H11" s="15" t="n">
+      <c r="H11" s="17" t="n">
         <f aca="false">detail!B11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="15" t="n">
+      <c r="I11" s="17" t="n">
         <f aca="false">G11-H11</f>
         <v>25</v>
       </c>
-      <c r="J11" s="16" t="n">
+      <c r="J11" s="18" t="n">
         <f aca="false">(H11/(H11+I11))</f>
         <v>0</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2450,34 +2428,34 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>34</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="H13" s="15" t="n">
+      <c r="H13" s="17" t="n">
         <f aca="false">detail!B13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="15" t="n">
+      <c r="I13" s="17" t="n">
         <f aca="false">G13-H13</f>
         <v>10</v>
       </c>
-      <c r="J13" s="16" t="n">
+      <c r="J13" s="18" t="n">
         <f aca="false">(H13/(H13+I13))</f>
         <v>0</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2488,10 +2466,10 @@
         <v>23</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>26</v>
@@ -2499,20 +2477,20 @@
       <c r="G14" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H14" s="15" t="n">
+      <c r="H14" s="17" t="n">
         <f aca="false">detail!B14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="15" t="n">
+      <c r="I14" s="17" t="n">
         <f aca="false">G14-H14</f>
         <v>20</v>
       </c>
-      <c r="J14" s="16" t="n">
+      <c r="J14" s="18" t="n">
         <f aca="false">(H14/(H14+I14))</f>
         <v>0</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2523,10 +2501,10 @@
         <v>23</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>26</v>
@@ -2534,20 +2512,20 @@
       <c r="G15" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="H15" s="15" t="n">
+      <c r="H15" s="17" t="n">
         <f aca="false">detail!B15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="15" t="n">
+      <c r="I15" s="17" t="n">
         <f aca="false">G15-H15</f>
         <v>30</v>
       </c>
-      <c r="J15" s="16" t="n">
+      <c r="J15" s="18" t="n">
         <f aca="false">(H15/(H15+I15))</f>
         <v>0</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2558,10 +2536,10 @@
         <v>23</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>26</v>
@@ -2569,20 +2547,20 @@
       <c r="G16" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="H16" s="15" t="n">
+      <c r="H16" s="17" t="n">
         <f aca="false">detail!B16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="15" t="n">
+      <c r="I16" s="17" t="n">
         <f aca="false">G16-H16</f>
         <v>25</v>
       </c>
-      <c r="J16" s="16" t="n">
+      <c r="J16" s="18" t="n">
         <f aca="false">(H16/(H16+I16))</f>
         <v>0</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3581,7 +3559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3591,7 +3569,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.78"/>
@@ -3602,51 +3580,51 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="n">
+      <c r="A2" s="17" t="n">
         <f aca="false">SUM('liste des taches'!G2:G329)</f>
         <v>283</v>
       </c>
-      <c r="B2" s="15" t="n">
+      <c r="B2" s="17" t="n">
         <f aca="false">SUM('liste des taches'!H2:H329)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C2" s="17" t="n">
         <f aca="false">SUM('liste des taches'!I2:I329)</f>
         <v>283</v>
       </c>
-      <c r="D2" s="16" t="n">
+      <c r="D2" s="18" t="n">
         <f aca="false">(B2/(B2+C2))</f>
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="n">
+      <c r="E2" s="19" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="17" t="n">
         <f aca="false">C2/60</f>
         <v>4.71666666666667</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>58</v>
+      <c r="D3" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4658,103 +4636,152 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.22265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="1" style="0" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>7</v>
+      <c r="A1" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="18" t="n">
+        <v>57</v>
+      </c>
+      <c r="C1" s="20" t="n">
         <v>46062</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="A2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="n">
+      <c r="B2" s="17" t="n">
         <f aca="false">SUM(C2:P2)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="n">
+      <c r="B3" s="17" t="n">
         <f aca="false">SUM(C3:P3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="n">
+      <c r="B4" s="17" t="n">
         <f aca="false">SUM(C4:P4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="n">
+      <c r="B5" s="17" t="n">
         <f aca="false">SUM(C5:P5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="n">
+      <c r="B6" s="17" t="n">
         <f aca="false">SUM(C6:P6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="n">
+      <c r="B7" s="17" t="n">
         <f aca="false">SUM(C7:P7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="17" t="n">
         <f aca="false">SUM(C8:P8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t xml:space="preserve">Avancement</t>
   </si>
@@ -94,19 +94,22 @@
     <t xml:space="preserve">Framework</t>
   </si>
   <si>
+    <t xml:space="preserve">Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login pour admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonctionalite</t>
+  </si>
+  <si>
     <t xml:space="preserve">En cours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login pour admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fonctionalite</t>
   </si>
   <si>
     <t xml:space="preserve">gestion</t>
@@ -410,14 +413,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -448,7 +451,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -456,7 +459,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,19 +467,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -518,10 +521,10 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Catégorie de la table dynamique" xfId="20"/>
     <cellStyle name="Champ de la table dynamique" xfId="21"/>
-    <cellStyle name="Résultat de la table dynamique" xfId="22"/>
-    <cellStyle name="Titre de la table dynamique" xfId="23"/>
-    <cellStyle name="Valeur de la table dynamique" xfId="24"/>
-    <cellStyle name="Coin de la table dynamique" xfId="25"/>
+    <cellStyle name="Coin de la table dynamique" xfId="22"/>
+    <cellStyle name="Résultat de la table dynamique" xfId="23"/>
+    <cellStyle name="Titre de la table dynamique" xfId="24"/>
+    <cellStyle name="Valeur de la table dynamique" xfId="25"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -921,10 +924,10 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.44"/>
@@ -937,7 +940,7 @@
       </c>
       <c r="B1" s="2" t="n">
         <f aca="false">'avancement projet'!D2</f>
-        <v>0</v>
+        <v>0.0636042402826855</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2004,11 +2007,11 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.21"/>
@@ -2081,15 +2084,15 @@
       </c>
       <c r="H2" s="17" t="n">
         <f aca="false">detail!B2</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="17" t="n">
         <f aca="false">G2-H2</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J2" s="18" t="n">
         <f aca="false">(H2/(H2+I2))</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>6</v>
@@ -2133,6 +2136,9 @@
       <c r="K3" s="17" t="s">
         <v>4</v>
       </c>
+      <c r="L3" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="n">
@@ -2142,11 +2148,11 @@
         <v>23</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>26</v>
@@ -2175,35 +2181,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="17" t="n">
         <v>15</v>
       </c>
       <c r="H5" s="17" t="n">
         <f aca="false">detail!B5</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I5" s="17" t="n">
         <f aca="false">G5-H5</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J5" s="18" t="n">
         <f aca="false">(H5/(H5+I5))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>6</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2211,17 +2220,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="17" t="n">
         <v>5</v>
@@ -2250,11 +2259,11 @@
         <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>26</v>
@@ -2289,7 +2298,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>26</v>
@@ -2321,10 +2330,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>26</v>
@@ -2356,10 +2365,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>26</v>
@@ -2391,10 +2400,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>26</v>
@@ -2420,7 +2429,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2428,16 +2437,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>10</v>
@@ -2466,10 +2475,10 @@
         <v>23</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>26</v>
@@ -2501,10 +2510,10 @@
         <v>23</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>26</v>
@@ -2536,10 +2545,10 @@
         <v>23</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>26</v>
@@ -3569,7 +3578,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.78"/>
@@ -3581,19 +3590,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3603,15 +3612,15 @@
       </c>
       <c r="B2" s="17" t="n">
         <f aca="false">SUM('liste des taches'!H2:H329)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C2" s="17" t="n">
         <f aca="false">SUM('liste des taches'!I2:I329)</f>
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D2" s="18" t="n">
         <f aca="false">(B2/(B2+C2))</f>
-        <v>0</v>
+        <v>0.0636042402826855</v>
       </c>
       <c r="E2" s="19" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
@@ -3621,10 +3630,10 @@
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="17" t="n">
         <f aca="false">C2/60</f>
-        <v>4.71666666666667</v>
+        <v>4.41666666666667</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4642,11 +4651,11 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="1" style="0" width="10.56"/>
   </cols>
@@ -4656,7 +4665,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="20" t="n">
         <v>46062</v>
@@ -4668,9 +4677,11 @@
       </c>
       <c r="B2" s="17" t="n">
         <f aca="false">SUM(C2:P2)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="n">
@@ -4696,7 +4707,10 @@
       </c>
       <c r="B5" s="17" t="n">
         <f aca="false">SUM(C5:P5)</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t xml:space="preserve">Avancement</t>
   </si>
@@ -940,7 +940,7 @@
       </c>
       <c r="B1" s="2" t="n">
         <f aca="false">'avancement projet'!D2</f>
-        <v>0.0636042402826855</v>
+        <v>0.0812720848056537</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2008,7 +2008,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2237,18 +2237,21 @@
       </c>
       <c r="H6" s="17" t="n">
         <f aca="false">detail!B6</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="17" t="n">
         <f aca="false">G6-H6</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="18" t="n">
         <f aca="false">(H6/(H6+I6))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>6</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3612,15 +3615,15 @@
       </c>
       <c r="B2" s="17" t="n">
         <f aca="false">SUM('liste des taches'!H2:H329)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C2" s="17" t="n">
         <f aca="false">SUM('liste des taches'!I2:I329)</f>
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D2" s="18" t="n">
         <f aca="false">(B2/(B2+C2))</f>
-        <v>0.0636042402826855</v>
+        <v>0.0812720848056537</v>
       </c>
       <c r="E2" s="19" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
@@ -3630,7 +3633,7 @@
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="17" t="n">
         <f aca="false">C2/60</f>
-        <v>4.41666666666667</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>57</v>
@@ -4652,7 +4655,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4719,7 +4722,10 @@
       </c>
       <c r="B6" s="17" t="n">
         <f aca="false">SUM(C6:P6)</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
